--- a/Visiting Card - User Assignment Mapping.xlsx
+++ b/Visiting Card - User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\Desktop\Visiting Card\visiting-card-assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\visiting-card-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C8191-98C6-48B9-8D02-DFDB0AAF3B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738BFE72-4BF4-4410-A588-7151C078B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -523,13 +523,67 @@
   </si>
   <si>
     <t>Rehan Shaikh</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Dhongde</t>
+  </si>
+  <si>
+    <t>dhongadetrupti2@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Kandra</t>
+  </si>
+  <si>
+    <t>sheetalkandara785@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjeevani</t>
+  </si>
+  <si>
+    <t>Balure</t>
+  </si>
+  <si>
+    <t>baluresanjeevanee22@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Ragho</t>
+  </si>
+  <si>
+    <t>raghumayuri2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>kadamhemant642@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishori</t>
+  </si>
+  <si>
+    <t>Mestry</t>
+  </si>
+  <si>
+    <t>kishorimestry1996@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,8 +654,28 @@
       <name val="Microsoft YaHei"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +686,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,10 +801,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,7 +823,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -754,12 +834,37 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -833,17 +938,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:F43" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}" name="Table1" displayName="Table1" ref="A1:G43" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:G43" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7E2CFDBB-BA5E-49DA-9973-9F596D007047}" name="Sr. No."/>
     <tableColumn id="2" xr3:uid="{101B57E9-B587-4811-A5F9-9C8D2916B5A7}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{B42FFB8C-E40B-4CFF-B588-2A93BF040BAB}" name="Last Name"/>
-    <tableColumn id="5" xr3:uid="{DF359894-BEEC-42C8-9C0F-9C994370358A}" name="Assignment File" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{27840531-70BA-4F7F-A378-3E400E576BA0}" name="Email" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DF359894-BEEC-42C8-9C0F-9C994370358A}" name="Assignment File" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("designs/",TEXT(A2,"00"),".jpg")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D6D2C818-E88C-4528-9131-7FB10A1427E2}" name="Assignment Github Url"/>
-    <tableColumn id="7" xr3:uid="{939F0E6D-26AB-490E-8A49-F54FFEDB1606}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{939F0E6D-26AB-490E-8A49-F54FFEDB1606}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,21 +1218,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" customWidth="1"/>
-    <col min="4" max="4" width="19.46484375" customWidth="1"/>
-    <col min="5" max="5" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,16 +1244,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1156,13 +1266,14 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D34" si="0">_xlfn.CONCAT("designs/",TEXT(A2,"00"),".jpg")</f>
+      <c r="D2" s="26"/>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E34" si="0">_xlfn.CONCAT("designs/",TEXT(A2,"00"),".jpg")</f>
         <v>designs/01.jpg</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1172,13 +1283,14 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="26"/>
+      <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>designs/02.jpg</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1188,13 +1300,14 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="26"/>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>designs/03.jpg</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1204,13 +1317,14 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="26"/>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>designs/04.jpg</v>
       </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1220,13 +1334,14 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="26"/>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>designs/05.jpg</v>
       </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1236,13 +1351,14 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="26"/>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>designs/06.jpg</v>
       </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1252,13 +1368,14 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="26"/>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>designs/07.jpg</v>
       </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1268,13 +1385,14 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="26"/>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>designs/08.jpg</v>
       </c>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1284,13 +1402,14 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="26"/>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>designs/09.jpg</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1300,13 +1419,14 @@
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="26"/>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>designs/10.jpg</v>
       </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1316,13 +1436,14 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="26"/>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>designs/11.jpg</v>
       </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1332,13 +1453,14 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="26"/>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>designs/12.jpg</v>
       </c>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1348,13 +1470,14 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="26"/>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>designs/13.jpg</v>
       </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1364,13 +1487,14 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="26"/>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>designs/14.jpg</v>
       </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1380,13 +1504,14 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="26"/>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>designs/15.jpg</v>
       </c>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1396,13 +1521,14 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="26"/>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>designs/16.jpg</v>
       </c>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1412,13 +1538,14 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="26"/>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>designs/17.jpg</v>
       </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1428,13 +1555,14 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="26"/>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>designs/18.jpg</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1444,13 +1572,14 @@
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="26"/>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>designs/19.jpg</v>
       </c>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1460,13 +1589,14 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="26"/>
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>designs/20.jpg</v>
       </c>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1476,13 +1606,14 @@
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="26"/>
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>designs/21.jpg</v>
       </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1492,13 +1623,14 @@
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="26"/>
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>designs/22.jpg</v>
       </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1508,13 +1640,14 @@
       <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="26"/>
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>designs/23.jpg</v>
       </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1524,13 +1657,14 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="26"/>
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>designs/24.jpg</v>
       </c>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1540,13 +1674,14 @@
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="26"/>
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>designs/25.jpg</v>
       </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1556,13 +1691,14 @@
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="26"/>
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>designs/26.jpg</v>
       </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1572,13 +1708,14 @@
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="26"/>
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>designs/27.jpg</v>
       </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1588,13 +1725,14 @@
       <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="26"/>
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>designs/28.jpg</v>
       </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1604,13 +1742,14 @@
       <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="26"/>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>designs/29.jpg</v>
       </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1620,13 +1759,14 @@
       <c r="C31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="26"/>
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>designs/30.jpg</v>
       </c>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1636,13 +1776,14 @@
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="26"/>
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>designs/31.jpg</v>
       </c>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1652,13 +1793,14 @@
       <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="26"/>
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>designs/32.jpg</v>
       </c>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1668,13 +1810,14 @@
       <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="26"/>
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>designs/33.jpg</v>
       </c>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1684,13 +1827,14 @@
       <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35:D43" si="1">_xlfn.CONCAT("designs/",TEXT(A35,"00"),".jpg")</f>
+      <c r="D35" s="26"/>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E43" si="1">_xlfn.CONCAT("designs/",TEXT(A35,"00"),".jpg")</f>
         <v>designs/34.jpg</v>
       </c>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1700,13 +1844,14 @@
       <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="26"/>
+      <c r="E36" t="str">
         <f t="shared" si="1"/>
         <v>designs/35.jpg</v>
       </c>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1716,13 +1861,14 @@
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" s="26"/>
+      <c r="E37" t="str">
         <f t="shared" si="1"/>
         <v>designs/36.jpg</v>
       </c>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1732,13 +1878,14 @@
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="26"/>
+      <c r="E38" t="str">
         <f t="shared" si="1"/>
         <v>designs/37.jpg</v>
       </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1748,13 +1895,14 @@
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="26"/>
+      <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v>designs/38.jpg</v>
       </c>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1764,13 +1912,14 @@
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="26"/>
+      <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v>designs/39.jpg</v>
       </c>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1780,13 +1929,14 @@
       <c r="C41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="26"/>
+      <c r="E41" t="str">
         <f t="shared" si="1"/>
         <v>designs/40.jpg</v>
       </c>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1796,13 +1946,14 @@
       <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="26"/>
+      <c r="E42" t="str">
         <f t="shared" si="1"/>
         <v>designs/41.jpg</v>
       </c>
-      <c r="F42" s="26"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1812,27 +1963,29 @@
       <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" s="26"/>
+      <c r="E43" t="str">
         <f t="shared" si="1"/>
         <v>designs/42.jpg</v>
       </c>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" ref="A44:A107" si="2">ROW() - 1</f>
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="6" t="str">
+      <c r="D44" s="5"/>
+      <c r="E44" s="6" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A44,"00"),".jpg")</f>
         <v>designs/43.jpg</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -1843,14 +1996,15 @@
       <c r="C45" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="11" t="str">
-        <f t="shared" ref="D45:D108" si="3">_xlfn.CONCAT("designs/",TEXT(A45,"00"),".jpg")</f>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11" t="str">
+        <f t="shared" ref="E45:E108" si="3">_xlfn.CONCAT("designs/",TEXT(A45,"00"),".jpg")</f>
         <v>designs/44.jpg</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -1861,14 +2015,15 @@
       <c r="C46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="6" t="str">
+      <c r="D46" s="5"/>
+      <c r="E46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/45.jpg</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -1879,14 +2034,15 @@
       <c r="C47" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/46.jpg</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -1897,14 +2053,15 @@
       <c r="C48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="6" t="str">
+      <c r="D48" s="5"/>
+      <c r="E48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/47.jpg</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1915,14 +2072,15 @@
       <c r="C49" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D49" s="10"/>
+      <c r="E49" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/48.jpg</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -1933,14 +2091,15 @@
       <c r="C50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="6" t="str">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/49.jpg</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -1951,14 +2110,15 @@
       <c r="C51" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D51" s="10"/>
+      <c r="E51" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/50.jpg</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -1969,210 +2129,225 @@
       <c r="C52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="6" t="str">
+      <c r="D52" s="5"/>
+      <c r="E52" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/51.jpg</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="11" t="str">
+      <c r="D53" s="10"/>
+      <c r="E53" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/52.jpg</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="6" t="str">
+      <c r="D54" s="5"/>
+      <c r="E54" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/53.jpg</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="11" t="str">
+      <c r="D55" s="10"/>
+      <c r="E55" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/54.jpg</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="6" t="str">
+      <c r="D56" s="5"/>
+      <c r="E56" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/55.jpg</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="11" t="str">
+      <c r="D57" s="10"/>
+      <c r="E57" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/56.jpg</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="6" t="str">
+      <c r="D58" s="5"/>
+      <c r="E58" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/57.jpg</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="11" t="str">
+      <c r="D59" s="10"/>
+      <c r="E59" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/58.jpg</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="6" t="str">
+      <c r="D60" s="5"/>
+      <c r="E60" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/59.jpg</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="11" t="str">
+      <c r="D61" s="10"/>
+      <c r="E61" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/60.jpg</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="6" t="str">
+      <c r="D62" s="5"/>
+      <c r="E62" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/61.jpg</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="11" t="str">
+      <c r="D63" s="10"/>
+      <c r="E63" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/62.jpg</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="6" t="str">
+      <c r="D64" s="5"/>
+      <c r="E64" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/63.jpg</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="11" t="str">
+      <c r="D65" s="10"/>
+      <c r="E65" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/64.jpg</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="6" t="str">
+      <c r="D66" s="5"/>
+      <c r="E66" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/65.jpg</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -2183,14 +2358,15 @@
       <c r="C67" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="11" t="str">
+      <c r="D67" s="10"/>
+      <c r="E67" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/66.jpg</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -2201,14 +2377,15 @@
       <c r="C68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="6" t="str">
+      <c r="D68" s="5"/>
+      <c r="E68" s="6" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A68,"00"),".jpg")</f>
         <v>designs/67.jpg</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -2219,14 +2396,15 @@
       <c r="C69" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="11" t="str">
+      <c r="D69" s="10"/>
+      <c r="E69" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/68.jpg</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -2237,14 +2415,15 @@
       <c r="C70" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="6" t="str">
+      <c r="D70" s="5"/>
+      <c r="E70" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/69.jpg</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2255,14 +2434,15 @@
       <c r="C71" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="11" t="str">
+      <c r="D71" s="10"/>
+      <c r="E71" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/70.jpg</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -2273,28 +2453,30 @@
       <c r="C72" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="6" t="str">
+      <c r="D72" s="5"/>
+      <c r="E72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/71.jpg</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="11" t="str">
+      <c r="D73" s="10"/>
+      <c r="E73" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/72.jpg</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -2305,14 +2487,15 @@
       <c r="C74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="6" t="str">
+      <c r="D74" s="5"/>
+      <c r="E74" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/73.jpg</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -2323,14 +2506,15 @@
       <c r="C75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="11" t="str">
+      <c r="D75" s="10"/>
+      <c r="E75" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/74.jpg</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -2341,14 +2525,15 @@
       <c r="C76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="6" t="str">
+      <c r="D76" s="5"/>
+      <c r="E76" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/75.jpg</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F76" s="6"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2359,14 +2544,15 @@
       <c r="C77" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="11" t="str">
+      <c r="D77" s="10"/>
+      <c r="E77" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/76.jpg</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2377,14 +2563,15 @@
       <c r="C78" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="6" t="str">
+      <c r="D78" s="5"/>
+      <c r="E78" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/77.jpg</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2395,14 +2582,15 @@
       <c r="C79" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="11" t="str">
+      <c r="D79" s="10"/>
+      <c r="E79" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/78.jpg</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -2413,14 +2601,15 @@
       <c r="C80" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="6" t="str">
+      <c r="D80" s="5"/>
+      <c r="E80" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/79.jpg</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2431,14 +2620,15 @@
       <c r="C81" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D81" s="11" t="str">
+      <c r="D81" s="10"/>
+      <c r="E81" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/80.jpg</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -2449,14 +2639,15 @@
       <c r="C82" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="6" t="str">
+      <c r="D82" s="5"/>
+      <c r="E82" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/81.jpg</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -2467,14 +2658,15 @@
       <c r="C83" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="11" t="str">
+      <c r="D83" s="10"/>
+      <c r="E83" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/82.jpg</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2485,14 +2677,15 @@
       <c r="C84" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="6" t="str">
+      <c r="D84" s="5"/>
+      <c r="E84" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/83.jpg</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2503,14 +2696,15 @@
       <c r="C85" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="11" t="str">
+      <c r="D85" s="10"/>
+      <c r="E85" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/84.jpg</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2521,14 +2715,15 @@
       <c r="C86" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="6" t="str">
+      <c r="D86" s="5"/>
+      <c r="E86" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/85.jpg</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2539,14 +2734,15 @@
       <c r="C87" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="11" t="str">
+      <c r="D87" s="10"/>
+      <c r="E87" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/86.jpg</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2557,14 +2753,15 @@
       <c r="C88" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D88" s="6" t="str">
+      <c r="D88" s="5"/>
+      <c r="E88" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/87.jpg</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2575,14 +2772,15 @@
       <c r="C89" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="11" t="str">
+      <c r="D89" s="10"/>
+      <c r="E89" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/88.jpg</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2593,14 +2791,15 @@
       <c r="C90" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="6" t="str">
+      <c r="D90" s="5"/>
+      <c r="E90" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/89.jpg</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F90" s="6"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2611,14 +2810,15 @@
       <c r="C91" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D91" s="11" t="str">
+      <c r="D91" s="10"/>
+      <c r="E91" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/90.jpg</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2629,990 +2829,1091 @@
       <c r="C92" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" s="5"/>
+      <c r="E92" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/91.jpg</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="11" t="str">
+      <c r="D93" s="10"/>
+      <c r="E93" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/92.jpg</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="6" t="str">
+      <c r="D94" s="5"/>
+      <c r="E94" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/93.jpg</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F94" s="6"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" s="10"/>
-      <c r="D95" s="11" t="str">
+      <c r="D95" s="10"/>
+      <c r="E95" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/94.jpg</v>
       </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="6" t="str">
+      <c r="D96" s="5"/>
+      <c r="E96" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/95.jpg</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F96" s="6"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="10"/>
-      <c r="D97" s="11" t="str">
+      <c r="D97" s="10"/>
+      <c r="E97" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/96.jpg</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" t="s">
         <v>136</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="6" t="str">
+      <c r="D98" s="5"/>
+      <c r="E98" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/97.jpg</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F98" s="6"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="10"/>
-      <c r="D99" s="11" t="str">
+      <c r="D99" s="10"/>
+      <c r="E99" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/98.jpg</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" t="s">
         <v>138</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="6" t="str">
+      <c r="D100" s="5"/>
+      <c r="E100" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/99.jpg</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" t="s">
         <v>139</v>
       </c>
       <c r="C101" s="10"/>
-      <c r="D101" s="11" t="str">
+      <c r="D101" s="10"/>
+      <c r="E101" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/100.jpg</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" t="s">
         <v>140</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="6" t="str">
+      <c r="D102" s="5"/>
+      <c r="E102" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/101.jpg</v>
       </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" t="s">
         <v>141</v>
       </c>
       <c r="C103" s="10"/>
-      <c r="D103" s="11" t="str">
+      <c r="D103" s="10"/>
+      <c r="E103" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/102.jpg</v>
       </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" t="s">
         <v>142</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="6" t="str">
+      <c r="D104" s="5"/>
+      <c r="E104" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/103.jpg</v>
       </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F104" s="6"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" t="s">
         <v>143</v>
       </c>
       <c r="C105" s="10"/>
-      <c r="D105" s="11" t="str">
+      <c r="D105" s="10"/>
+      <c r="E105" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/104.jpg</v>
       </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" t="s">
         <v>144</v>
       </c>
       <c r="C106" s="6"/>
-      <c r="D106" s="6" t="str">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/105.jpg</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F106" s="6"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" t="s">
         <v>145</v>
       </c>
       <c r="C107" s="10"/>
-      <c r="D107" s="11" t="str">
+      <c r="D107" s="10"/>
+      <c r="E107" s="11" t="str">
         <f t="shared" si="3"/>
         <v>designs/106.jpg</v>
       </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <f t="shared" ref="A108:A153" si="4">ROW() - 1</f>
         <v>107</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" t="s">
         <v>146</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="6" t="str">
+      <c r="D108" s="5"/>
+      <c r="E108" s="6" t="str">
         <f t="shared" si="3"/>
         <v>designs/107.jpg</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" t="s">
         <v>147</v>
       </c>
       <c r="C109" s="10"/>
-      <c r="D109" s="11" t="str">
-        <f t="shared" ref="D109:D120" si="5">_xlfn.CONCAT("designs/",TEXT(A109,"00"),".jpg")</f>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11" t="str">
+        <f t="shared" ref="E109:E120" si="5">_xlfn.CONCAT("designs/",TEXT(A109,"00"),".jpg")</f>
         <v>designs/108.jpg</v>
       </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" t="s">
         <v>148</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="6" t="str">
+      <c r="D110" s="5"/>
+      <c r="E110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/109.jpg</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F110" s="6"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="B111" s="27"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="11" t="str">
+      <c r="D111" s="10"/>
+      <c r="E111" s="11" t="str">
         <f t="shared" si="5"/>
         <v>designs/110.jpg</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B112" t="s">
         <v>149</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="6" t="str">
+      <c r="D112" s="5"/>
+      <c r="E112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/111.jpg</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" t="s">
         <v>150</v>
       </c>
       <c r="C113" s="10"/>
-      <c r="D113" s="11" t="str">
+      <c r="D113" s="10"/>
+      <c r="E113" s="11" t="str">
         <f t="shared" si="5"/>
         <v>designs/112.jpg</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" t="s">
         <v>151</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="6" t="str">
+      <c r="D114" s="5"/>
+      <c r="E114" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/113.jpg</v>
       </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" t="s">
         <v>152</v>
       </c>
       <c r="C115" s="10"/>
-      <c r="D115" s="11" t="str">
+      <c r="D115" s="10"/>
+      <c r="E115" s="11" t="str">
         <f t="shared" si="5"/>
         <v>designs/114.jpg</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F115" s="11"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B116" t="s">
         <v>153</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="6" t="str">
+      <c r="D116" s="5"/>
+      <c r="E116" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/115.jpg</v>
       </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F116" s="6"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B117" t="s">
         <v>154</v>
       </c>
       <c r="C117" s="10"/>
-      <c r="D117" s="11" t="str">
+      <c r="D117" s="10"/>
+      <c r="E117" s="11" t="str">
         <f t="shared" si="5"/>
         <v>designs/116.jpg</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F117" s="11"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" t="s">
         <v>155</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="6" t="str">
+      <c r="D118" s="5"/>
+      <c r="E118" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/117.jpg</v>
       </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F118" s="6"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" t="s">
         <v>156</v>
       </c>
       <c r="C119" s="10"/>
-      <c r="D119" s="11" t="str">
+      <c r="D119" s="10"/>
+      <c r="E119" s="11" t="str">
         <f t="shared" si="5"/>
         <v>designs/118.jpg</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="12"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F119" s="11"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" t="s">
         <v>157</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="6" t="str">
+      <c r="D120" s="5"/>
+      <c r="E120" s="6" t="str">
         <f t="shared" si="5"/>
         <v>designs/119.jpg</v>
       </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F120" s="6"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" t="s">
         <v>158</v>
       </c>
       <c r="C121" s="10"/>
-      <c r="D121" s="11" t="str">
+      <c r="D121" s="10"/>
+      <c r="E121" s="11" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A121,"00"),".jpg")</f>
         <v>designs/120.jpg</v>
       </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F121" s="11"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" t="s">
         <v>159</v>
       </c>
       <c r="C122" s="14"/>
-      <c r="D122" s="6" t="str">
-        <f t="shared" ref="D122:D147" si="6">_xlfn.CONCAT("designs/",TEXT(A122,"00"),".jpg")</f>
+      <c r="D122" s="14"/>
+      <c r="E122" s="6" t="str">
+        <f t="shared" ref="E122:E147" si="6">_xlfn.CONCAT("designs/",TEXT(A122,"00"),".jpg")</f>
         <v>designs/121.jpg</v>
       </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F122" s="6"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" t="s">
         <v>160</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="11" t="str">
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/122.jpg</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F123" s="11"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" t="s">
         <v>161</v>
       </c>
       <c r="C124" s="14"/>
-      <c r="D124" s="6" t="str">
+      <c r="D124" s="14"/>
+      <c r="E124" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/123.jpg</v>
       </c>
-      <c r="E124" s="6"/>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F124" s="6"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" t="s">
         <v>162</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="11" t="str">
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/124.jpg</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F125" s="11"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="6" t="str">
+      <c r="B126" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/125.jpg</v>
       </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F126" s="6"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="11" t="str">
+      <c r="B127" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/126.jpg</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F127" s="11"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="6" t="str">
+      <c r="B128" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E128" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/127.jpg</v>
       </c>
-      <c r="E128" s="6"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F128" s="6"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="11" t="str">
+      <c r="B129" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/128.jpg</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="6" t="str">
+      <c r="B130" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E130" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/129.jpg</v>
       </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F130" s="6"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="11" t="str">
+      <c r="B131" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/130.jpg</v>
       </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="12"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F131" s="11"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="6" t="str">
+      <c r="D132" s="14"/>
+      <c r="E132" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/131.jpg</v>
       </c>
-      <c r="E132" s="6"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F132" s="6"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="8">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="11" t="str">
+      <c r="B133" s="16"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/132.jpg</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F133" s="11"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="6" t="str">
+      <c r="B134" s="18"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/133.jpg</v>
       </c>
-      <c r="E134" s="6"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F134" s="6"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="8">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="11" t="str">
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/134.jpg</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F135" s="11"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="6" t="str">
+      <c r="B136" s="22"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/135.jpg</v>
       </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F136" s="6"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="8">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="11" t="str">
+      <c r="B137" s="20"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/136.jpg</v>
       </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="12"/>
-    </row>
-    <row r="138" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F137" s="11"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="6" t="str">
+      <c r="B138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/137.jpg</v>
       </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F138" s="6"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="8">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="11" t="str">
+      <c r="B139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/138.jpg</v>
       </c>
-      <c r="E139" s="11"/>
-      <c r="F139" s="12"/>
-    </row>
-    <row r="140" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F139" s="11"/>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="B140" s="23"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="6" t="str">
+      <c r="B140" s="22"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/139.jpg</v>
       </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F140" s="6"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="8">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="11" t="str">
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/140.jpg</v>
       </c>
-      <c r="E141" s="11"/>
-      <c r="F141" s="12"/>
-    </row>
-    <row r="142" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F141" s="11"/>
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="6" t="str">
+      <c r="B142" s="22"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/141.jpg</v>
       </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F142" s="6"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="B143" s="25"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="11" t="str">
+      <c r="B143" s="24"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/142.jpg</v>
       </c>
-      <c r="E143" s="11"/>
-      <c r="F143" s="12"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F143" s="11"/>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="6" t="str">
+      <c r="D144" s="14"/>
+      <c r="E144" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/143.jpg</v>
       </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="11" t="str">
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/144.jpg</v>
       </c>
-      <c r="E145" s="11"/>
-      <c r="F145" s="12"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F145" s="11"/>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="14"/>
-      <c r="D146" s="6" t="str">
+      <c r="D146" s="14"/>
+      <c r="E146" s="6" t="str">
         <f t="shared" si="6"/>
         <v>designs/145.jpg</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F146" s="6"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="B147" s="11"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="11" t="str">
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="11" t="str">
         <f t="shared" si="6"/>
         <v>designs/146.jpg</v>
       </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="12"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F147" s="11"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="6" t="str">
+      <c r="D148" s="14"/>
+      <c r="E148" s="6" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A148,"00"),".jpg")</f>
         <v>designs/147.jpg</v>
       </c>
-      <c r="E148" s="6"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F148" s="6"/>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="B149" s="11"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="11" t="str">
-        <f t="shared" ref="D149:D153" si="7">_xlfn.CONCAT("designs/",TEXT(A149,"00"),".jpg")</f>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="11" t="str">
+        <f t="shared" ref="E149:E153" si="7">_xlfn.CONCAT("designs/",TEXT(A149,"00"),".jpg")</f>
         <v>designs/148.jpg</v>
       </c>
-      <c r="E149" s="11"/>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F149" s="11"/>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="6" t="str">
+      <c r="D150" s="14"/>
+      <c r="E150" s="6" t="str">
         <f t="shared" si="7"/>
         <v>designs/149.jpg</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F150" s="6"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="11" t="str">
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="11" t="str">
         <f t="shared" si="7"/>
         <v>designs/150.jpg</v>
       </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F151" s="11"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <f t="shared" si="4"/>
         <v>151</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="6" t="str">
+      <c r="D152" s="14"/>
+      <c r="E152" s="6" t="str">
         <f t="shared" si="7"/>
         <v>designs/151.jpg</v>
       </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F152" s="6"/>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="11" t="str">
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="11" t="str">
         <f t="shared" si="7"/>
         <v>designs/152.jpg</v>
       </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="12"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F153" s="11"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <f>ROW() - 1</f>
         <v>153</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
-      <c r="D154" s="6" t="str">
+      <c r="D154" s="14"/>
+      <c r="E154" s="6" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A154,"00"),".jpg")</f>
         <v>designs/153.jpg</v>
       </c>
-      <c r="E154" s="6"/>
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F154" s="6"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>154</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="11" t="str">
+      <c r="D155" s="11"/>
+      <c r="E155" s="11" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"00"),".jpg")</f>
         <v>designs/154.jpg</v>
       </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="12"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D99" r:id="rId1" display="s.r.idandewar45@gmail.com" xr:uid="{B9AC0AF4-85B6-463C-9342-3B8CCB8F2916}"/>
-    <hyperlink ref="D95" r:id="rId2" display="mrpatilog0908@gmail.com" xr:uid="{115B339A-84BD-45D8-8826-A191E2B9246A}"/>
-    <hyperlink ref="D96" r:id="rId3" display="patilharsha917@gmail.com" xr:uid="{1AE18A9B-5DB5-469C-8CFD-F12861E8A167}"/>
-    <hyperlink ref="D98" r:id="rId4" display="rupaliraut2202@gamil.com" xr:uid="{C2916550-663C-40EE-971E-17C2E1CC7C13}"/>
-    <hyperlink ref="D97" r:id="rId5" display="vikrantkhot1608@gmail.com" xr:uid="{573CB28B-C4EB-417E-AD35-52EA6C4BF055}"/>
-    <hyperlink ref="D100" r:id="rId6" display="manjushahinge607@gmail.com" xr:uid="{6E5133F3-E597-44E4-B437-EEE802B2910E}"/>
-    <hyperlink ref="D101" r:id="rId7" display="rohanjadhav7799@gmail.com" xr:uid="{6C4339CB-9D7F-49D4-AEE9-3EDE125355D5}"/>
-    <hyperlink ref="D102" r:id="rId8" display="siddheshr08@gmail.com" xr:uid="{D416FC8A-D3E9-48E3-9565-E74BB7E739B5}"/>
-    <hyperlink ref="D103" r:id="rId9" display="kalpeshkhairnar56@gmail.com" xr:uid="{F4943919-B7CA-4BBF-8E49-DCA7AB599921}"/>
-    <hyperlink ref="D104" r:id="rId10" display="sakshibiradar958@gmail.com" xr:uid="{21DBBBFC-EB92-4333-80DB-4B1468B8E08A}"/>
-    <hyperlink ref="D105" r:id="rId11" display="swarashi1996@gmail.com" xr:uid="{FEE02209-6542-4AB9-B9BD-8D3333F190D9}"/>
-    <hyperlink ref="D106" r:id="rId12" display="aartikadam6288@gmail.com" xr:uid="{19061DFD-DF22-402C-9E6F-91005FCE53A0}"/>
-    <hyperlink ref="D107" r:id="rId13" display="nachanrahul8@gmail.com" xr:uid="{B45162BD-F934-4237-A459-545F1F648B01}"/>
-    <hyperlink ref="D108" r:id="rId14" display="khandagalerenuka31@gmail.com" xr:uid="{FA264AD8-46F0-4595-A75E-59AF23FDD0CC}"/>
-    <hyperlink ref="D109" r:id="rId15" display="chetansathe33@gmail.com" xr:uid="{154588A5-03B9-4312-A71C-CBDAF4368A1C}"/>
-    <hyperlink ref="D110" r:id="rId16" display="narwadepawan5@gmail.com" xr:uid="{356F76E0-0BB3-4F80-8A3D-E444028ED748}"/>
-    <hyperlink ref="D125" r:id="rId17" display="rehanshaikh902890@gmail.com" xr:uid="{2BA20FF3-7356-4F9C-9B5C-39BD68FFB603}"/>
-    <hyperlink ref="D112" r:id="rId18" display="fartadenikita@gmail.com" xr:uid="{93A53207-A092-40FD-9865-6AE2E7933988}"/>
-    <hyperlink ref="D113" r:id="rId19" display="karangupta98@gmail.com" xr:uid="{D5DAD728-95FF-4CD2-84E6-169551B61716}"/>
-    <hyperlink ref="D114" r:id="rId20" display="sonalimhaismale9@gmail.com" xr:uid="{56B5C6B5-B442-43E7-BEC4-24C66BEA9C8D}"/>
-    <hyperlink ref="D115" r:id="rId21" display="sandeepgaikwad@gmail.com" xr:uid="{A37F8833-3A53-460D-84AC-CFC63CEFCF14}"/>
-    <hyperlink ref="D116" r:id="rId22" display="dikshafande13@gmail.com" xr:uid="{89FE5F4F-E548-421E-ACA3-E022A836090A}"/>
-    <hyperlink ref="D117" r:id="rId23" display="manoj.v.bhamre@gmail.com" xr:uid="{1632E494-380D-413F-B332-A019CEBE2201}"/>
-    <hyperlink ref="D118" r:id="rId24" display="atharvaaher2019@gmail.com" xr:uid="{B25454F0-07AB-4C8D-B627-93E19A2ABCFE}"/>
-    <hyperlink ref="D119" r:id="rId25" display="sdale2103@gmail.com" xr:uid="{1D76D51A-2119-42EF-BBC4-0E60062352EE}"/>
-    <hyperlink ref="D120" r:id="rId26" display="aishwaryajanmale2001@gmail.com" xr:uid="{91E9CB78-674F-454E-869B-013E99E4A26A}"/>
-    <hyperlink ref="D121" r:id="rId27" display="saurabhgolhar84@gmail.com" xr:uid="{677214A9-ED6B-4FE1-8425-405A6C3F59C4}"/>
-    <hyperlink ref="D122" r:id="rId28" display="adityanarwade512@gmail.com" xr:uid="{81D3CF97-F659-4089-81C7-D7212D204EC1}"/>
-    <hyperlink ref="D123" r:id="rId29" display="dnyaneshwarwankhede390@gmail.com" xr:uid="{B8DC8EDA-D092-4793-BA05-95C74E6867C5}"/>
-    <hyperlink ref="D124" r:id="rId30" display="amoltakbhate19@gmail.com" xr:uid="{E07B5D07-9ACB-475C-9DA7-9296F65D260C}"/>
+    <hyperlink ref="E99" r:id="rId1" display="s.r.idandewar45@gmail.com" xr:uid="{B9AC0AF4-85B6-463C-9342-3B8CCB8F2916}"/>
+    <hyperlink ref="E95" r:id="rId2" display="mrpatilog0908@gmail.com" xr:uid="{115B339A-84BD-45D8-8826-A191E2B9246A}"/>
+    <hyperlink ref="E96" r:id="rId3" display="patilharsha917@gmail.com" xr:uid="{1AE18A9B-5DB5-469C-8CFD-F12861E8A167}"/>
+    <hyperlink ref="E98" r:id="rId4" display="rupaliraut2202@gamil.com" xr:uid="{C2916550-663C-40EE-971E-17C2E1CC7C13}"/>
+    <hyperlink ref="E97" r:id="rId5" display="vikrantkhot1608@gmail.com" xr:uid="{573CB28B-C4EB-417E-AD35-52EA6C4BF055}"/>
+    <hyperlink ref="E100" r:id="rId6" display="manjushahinge607@gmail.com" xr:uid="{6E5133F3-E597-44E4-B437-EEE802B2910E}"/>
+    <hyperlink ref="E101" r:id="rId7" display="rohanjadhav7799@gmail.com" xr:uid="{6C4339CB-9D7F-49D4-AEE9-3EDE125355D5}"/>
+    <hyperlink ref="E102" r:id="rId8" display="siddheshr08@gmail.com" xr:uid="{D416FC8A-D3E9-48E3-9565-E74BB7E739B5}"/>
+    <hyperlink ref="E103" r:id="rId9" display="kalpeshkhairnar56@gmail.com" xr:uid="{F4943919-B7CA-4BBF-8E49-DCA7AB599921}"/>
+    <hyperlink ref="E104" r:id="rId10" display="sakshibiradar958@gmail.com" xr:uid="{21DBBBFC-EB92-4333-80DB-4B1468B8E08A}"/>
+    <hyperlink ref="E105" r:id="rId11" display="swarashi1996@gmail.com" xr:uid="{FEE02209-6542-4AB9-B9BD-8D3333F190D9}"/>
+    <hyperlink ref="E106" r:id="rId12" display="aartikadam6288@gmail.com" xr:uid="{19061DFD-DF22-402C-9E6F-91005FCE53A0}"/>
+    <hyperlink ref="E107" r:id="rId13" display="nachanrahul8@gmail.com" xr:uid="{B45162BD-F934-4237-A459-545F1F648B01}"/>
+    <hyperlink ref="E108" r:id="rId14" display="khandagalerenuka31@gmail.com" xr:uid="{FA264AD8-46F0-4595-A75E-59AF23FDD0CC}"/>
+    <hyperlink ref="E109" r:id="rId15" display="chetansathe33@gmail.com" xr:uid="{154588A5-03B9-4312-A71C-CBDAF4368A1C}"/>
+    <hyperlink ref="E110" r:id="rId16" display="narwadepawan5@gmail.com" xr:uid="{356F76E0-0BB3-4F80-8A3D-E444028ED748}"/>
+    <hyperlink ref="E125" r:id="rId17" display="rehanshaikh902890@gmail.com" xr:uid="{2BA20FF3-7356-4F9C-9B5C-39BD68FFB603}"/>
+    <hyperlink ref="E112" r:id="rId18" display="fartadenikita@gmail.com" xr:uid="{93A53207-A092-40FD-9865-6AE2E7933988}"/>
+    <hyperlink ref="E113" r:id="rId19" display="karangupta98@gmail.com" xr:uid="{D5DAD728-95FF-4CD2-84E6-169551B61716}"/>
+    <hyperlink ref="E114" r:id="rId20" display="sonalimhaismale9@gmail.com" xr:uid="{56B5C6B5-B442-43E7-BEC4-24C66BEA9C8D}"/>
+    <hyperlink ref="E115" r:id="rId21" display="sandeepgaikwad@gmail.com" xr:uid="{A37F8833-3A53-460D-84AC-CFC63CEFCF14}"/>
+    <hyperlink ref="E116" r:id="rId22" display="dikshafande13@gmail.com" xr:uid="{89FE5F4F-E548-421E-ACA3-E022A836090A}"/>
+    <hyperlink ref="E117" r:id="rId23" display="manoj.v.bhamre@gmail.com" xr:uid="{1632E494-380D-413F-B332-A019CEBE2201}"/>
+    <hyperlink ref="E118" r:id="rId24" display="atharvaaher2019@gmail.com" xr:uid="{B25454F0-07AB-4C8D-B627-93E19A2ABCFE}"/>
+    <hyperlink ref="E119" r:id="rId25" display="sdale2103@gmail.com" xr:uid="{1D76D51A-2119-42EF-BBC4-0E60062352EE}"/>
+    <hyperlink ref="E120" r:id="rId26" display="aishwaryajanmale2001@gmail.com" xr:uid="{91E9CB78-674F-454E-869B-013E99E4A26A}"/>
+    <hyperlink ref="E121" r:id="rId27" display="saurabhgolhar84@gmail.com" xr:uid="{677214A9-ED6B-4FE1-8425-405A6C3F59C4}"/>
+    <hyperlink ref="E122" r:id="rId28" display="adityanarwade512@gmail.com" xr:uid="{81D3CF97-F659-4089-81C7-D7212D204EC1}"/>
+    <hyperlink ref="E123" r:id="rId29" display="dnyaneshwarwankhede390@gmail.com" xr:uid="{B8DC8EDA-D092-4793-BA05-95C74E6867C5}"/>
+    <hyperlink ref="E124" r:id="rId30" display="amoltakbhate19@gmail.com" xr:uid="{E07B5D07-9ACB-475C-9DA7-9296F65D260C}"/>
+    <hyperlink ref="D126" r:id="rId31" xr:uid="{6584B06D-C8FD-4887-A45C-CF06E22B0FDA}"/>
+    <hyperlink ref="D127" r:id="rId32" xr:uid="{ADABC107-6FBA-4029-989D-B3E4E11B94A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>